--- a/Display_Bookshelves/ExcelFiles/BookshelvesDetails.xlsx
+++ b/Display_Bookshelves/ExcelFiles/BookshelvesDetails.xlsx
@@ -47,6 +47,12 @@
     <t>Boeberg Cabinet Inserts</t>
   </si>
   <si>
+    <t>(Columbian Walnut Finish)</t>
+  </si>
+  <si>
+    <t>₹1,699 ₹1,019</t>
+  </si>
+  <si>
     <t>(Dark Walnut Finish)</t>
   </si>
   <si>
@@ -56,13 +62,7 @@
     <t>Boeberg Drawer Inserts</t>
   </si>
   <si>
-    <t>(Columbian Walnut Finish)</t>
-  </si>
-  <si>
     <t>₹2,699 ₹1,619</t>
-  </si>
-  <si>
-    <t>₹1,699 ₹1,019</t>
   </si>
 </sst>
 </file>
@@ -170,21 +170,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>

--- a/Display_Bookshelves/ExcelFiles/BookshelvesDetails.xlsx
+++ b/Display_Bookshelves/ExcelFiles/BookshelvesDetails.xlsx
@@ -50,7 +50,7 @@
     <t>(Columbian Walnut Finish)</t>
   </si>
   <si>
-    <t>₹1,699 ₹1,019</t>
+    <t>₹1,699</t>
   </si>
   <si>
     <t>(Dark Walnut Finish)</t>
@@ -62,7 +62,7 @@
     <t>Boeberg Drawer Inserts</t>
   </si>
   <si>
-    <t>₹2,699 ₹1,619</t>
+    <t>₹2,699</t>
   </si>
 </sst>
 </file>
